--- a/exercise/answers/hfc_outputs.xlsx
+++ b/exercise/answers/hfc_outputs.xlsx
@@ -8086,7 +8086,7 @@
         <v>42375.690023148149</v>
       </c>
       <c r="D4" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -8121,7 +8121,7 @@
         <v>42375.690023148149</v>
       </c>
       <c r="D5" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
